--- a/static/ClasslistGeneratorTemplate.xlsx
+++ b/static/ClasslistGeneratorTemplate.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Connor/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Connor/Documents/ClasslistGener8r/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="15540"/>
+    <workbookView xWindow="10960" yWindow="460" windowWidth="14640" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Gradelist Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="82">
   <si>
     <t>Teacher Last Name</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Future Teacher Last Name (N/A If Unknown )</t>
   </si>
   <si>
-    <t xml:space="preserve">                        b</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -257,13 +254,37 @@
   </si>
   <si>
     <t>Jones</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>Olive</t>
+  </si>
+  <si>
+    <t>Jorgey</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Endicott</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Terrence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,14 +296,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Source Sans Pro"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -317,12 +330,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -642,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -661,44 +673,41 @@
     <col min="9" max="9" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -710,48 +719,48 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4">
         <v>3</v>
       </c>
@@ -762,73 +771,73 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -840,47 +849,47 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -892,99 +901,99 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -996,74 +1005,74 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -1074,22 +1083,22 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
       <c r="D17">
         <v>3</v>
       </c>
@@ -1100,22 +1109,22 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
       <c r="D18">
         <v>5</v>
       </c>
@@ -1126,22 +1135,22 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
       <c r="D19">
         <v>4</v>
       </c>
@@ -1152,21 +1161,21 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1178,22 +1187,22 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
@@ -1204,21 +1213,21 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1230,22 +1239,22 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
       <c r="D23">
         <v>2</v>
       </c>
@@ -1256,22 +1265,22 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
       <c r="D24">
         <v>5</v>
       </c>
@@ -1282,22 +1291,22 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
       <c r="D25">
         <v>3</v>
       </c>
@@ -1308,22 +1317,22 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
       <c r="D26">
         <v>5</v>
       </c>
@@ -1334,21 +1343,21 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1360,22 +1369,22 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
       <c r="D28">
         <v>4</v>
       </c>
@@ -1386,21 +1395,21 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1412,43 +1421,2196 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>74</v>
       </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" t="s">
         <v>18</v>
       </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J61" s="3"/>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" t="s">
+        <v>54</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
